--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cd160-Tnfrsf14.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cd160-Tnfrsf14.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.77696212606216</v>
+        <v>2.104507</v>
       </c>
       <c r="H2">
-        <v>1.77696212606216</v>
+        <v>6.313521</v>
       </c>
       <c r="I2">
-        <v>0.2684550042545429</v>
+        <v>0.2863228602749089</v>
       </c>
       <c r="J2">
-        <v>0.2684550042545429</v>
+        <v>0.2863228602749089</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.39067755935886</v>
+        <v>5.593702666666666</v>
       </c>
       <c r="N2">
-        <v>5.39067755935886</v>
+        <v>16.781108</v>
       </c>
       <c r="O2">
-        <v>0.195881410601599</v>
+        <v>0.1866080739693142</v>
       </c>
       <c r="P2">
-        <v>0.195881410601599</v>
+        <v>0.1866080739693142</v>
       </c>
       <c r="Q2">
-        <v>9.579029856793895</v>
+        <v>11.77198641791867</v>
       </c>
       <c r="R2">
-        <v>9.579029856793895</v>
+        <v>105.947877761268</v>
       </c>
       <c r="S2">
-        <v>0.05258534491643812</v>
+        <v>0.05343015748928583</v>
       </c>
       <c r="T2">
-        <v>0.05258534491643812</v>
+        <v>0.05343015748928583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.77696212606216</v>
+        <v>2.104507</v>
       </c>
       <c r="H3">
-        <v>1.77696212606216</v>
+        <v>6.313521</v>
       </c>
       <c r="I3">
-        <v>0.2684550042545429</v>
+        <v>0.2863228602749089</v>
       </c>
       <c r="J3">
-        <v>0.2684550042545429</v>
+        <v>0.2863228602749089</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.07814438588553</v>
+        <v>3.165799333333334</v>
       </c>
       <c r="N3">
-        <v>3.07814438588553</v>
+        <v>9.497398</v>
       </c>
       <c r="O3">
-        <v>0.1118507381870494</v>
+        <v>0.105612284272291</v>
       </c>
       <c r="P3">
-        <v>0.1118507381870494</v>
+        <v>0.105612284272291</v>
       </c>
       <c r="Q3">
-        <v>5.469745992269454</v>
+        <v>6.662446857595334</v>
       </c>
       <c r="R3">
-        <v>5.469745992269454</v>
+        <v>59.962021718358</v>
       </c>
       <c r="S3">
-        <v>0.03002689039587811</v>
+        <v>0.03023921131300915</v>
       </c>
       <c r="T3">
-        <v>0.03002689039587811</v>
+        <v>0.03023921131300914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.77696212606216</v>
+        <v>2.104507</v>
       </c>
       <c r="H4">
-        <v>1.77696212606216</v>
+        <v>6.313521</v>
       </c>
       <c r="I4">
-        <v>0.2684550042545429</v>
+        <v>0.2863228602749089</v>
       </c>
       <c r="J4">
-        <v>0.2684550042545429</v>
+        <v>0.2863228602749089</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.2408211332425</v>
+        <v>20.201379</v>
       </c>
       <c r="N4">
-        <v>18.2408211332425</v>
+        <v>60.604137</v>
       </c>
       <c r="O4">
-        <v>0.6628179361067104</v>
+        <v>0.673925778926067</v>
       </c>
       <c r="P4">
-        <v>0.6628179361067104</v>
+        <v>0.673925778926067</v>
       </c>
       <c r="Q4">
-        <v>32.41324830204617</v>
+        <v>42.513943515153</v>
       </c>
       <c r="R4">
-        <v>32.41324830204617</v>
+        <v>382.625491636377</v>
       </c>
       <c r="S4">
-        <v>0.1779367918575143</v>
+        <v>0.1929603566351074</v>
       </c>
       <c r="T4">
-        <v>0.1779367918575143</v>
+        <v>0.1929603566351074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.77696212606216</v>
+        <v>2.104507</v>
       </c>
       <c r="H5">
-        <v>1.77696212606216</v>
+        <v>6.313521</v>
       </c>
       <c r="I5">
-        <v>0.2684550042545429</v>
+        <v>0.2863228602749089</v>
       </c>
       <c r="J5">
-        <v>0.2684550042545429</v>
+        <v>0.2863228602749089</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.810464841926744</v>
+        <v>1.014792333333333</v>
       </c>
       <c r="N5">
-        <v>0.810464841926744</v>
+        <v>3.044377</v>
       </c>
       <c r="O5">
-        <v>0.02944991510464115</v>
+        <v>0.03385386283232782</v>
       </c>
       <c r="P5">
-        <v>0.02944991510464115</v>
+        <v>0.03385386283232782</v>
       </c>
       <c r="Q5">
-        <v>1.440165328608779</v>
+        <v>2.135637569046333</v>
       </c>
       <c r="R5">
-        <v>1.440165328608779</v>
+        <v>19.220738121417</v>
       </c>
       <c r="S5">
-        <v>0.007905977084712367</v>
+        <v>0.00969313483750653</v>
       </c>
       <c r="T5">
-        <v>0.007905977084712367</v>
+        <v>0.00969313483750653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.85466786375524</v>
+        <v>1.935596333333333</v>
       </c>
       <c r="H6">
-        <v>1.85466786375524</v>
+        <v>5.806789</v>
       </c>
       <c r="I6">
-        <v>0.2801944183011586</v>
+        <v>0.2633421882168251</v>
       </c>
       <c r="J6">
-        <v>0.2801944183011586</v>
+        <v>0.2633421882168251</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.39067755935886</v>
+        <v>5.593702666666666</v>
       </c>
       <c r="N6">
-        <v>5.39067755935886</v>
+        <v>16.781108</v>
       </c>
       <c r="O6">
-        <v>0.195881410601599</v>
+        <v>0.1866080739693142</v>
       </c>
       <c r="P6">
-        <v>0.195881410601599</v>
+        <v>0.1866080739693142</v>
       </c>
       <c r="Q6">
-        <v>9.997916433209408</v>
+        <v>10.82715037135689</v>
       </c>
       <c r="R6">
-        <v>9.997916433209408</v>
+        <v>97.444353342212</v>
       </c>
       <c r="S6">
-        <v>0.05488487789952543</v>
+        <v>0.04914177853800637</v>
       </c>
       <c r="T6">
-        <v>0.05488487789952543</v>
+        <v>0.04914177853800637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.85466786375524</v>
+        <v>1.935596333333333</v>
       </c>
       <c r="H7">
-        <v>1.85466786375524</v>
+        <v>5.806789</v>
       </c>
       <c r="I7">
-        <v>0.2801944183011586</v>
+        <v>0.2633421882168251</v>
       </c>
       <c r="J7">
-        <v>0.2801944183011586</v>
+        <v>0.2633421882168251</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.07814438588553</v>
+        <v>3.165799333333334</v>
       </c>
       <c r="N7">
-        <v>3.07814438588553</v>
+        <v>9.497398</v>
       </c>
       <c r="O7">
-        <v>0.1118507381870494</v>
+        <v>0.105612284272291</v>
       </c>
       <c r="P7">
-        <v>0.1118507381870494</v>
+        <v>0.105612284272291</v>
       </c>
       <c r="Q7">
-        <v>5.708935472500501</v>
+        <v>6.127709581669112</v>
       </c>
       <c r="R7">
-        <v>5.708935472500501</v>
+        <v>55.14938623502201</v>
       </c>
       <c r="S7">
-        <v>0.0313399525228755</v>
+        <v>0.02781217004284251</v>
       </c>
       <c r="T7">
-        <v>0.0313399525228755</v>
+        <v>0.0278121700428425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.85466786375524</v>
+        <v>1.935596333333333</v>
       </c>
       <c r="H8">
-        <v>1.85466786375524</v>
+        <v>5.806789</v>
       </c>
       <c r="I8">
-        <v>0.2801944183011586</v>
+        <v>0.2633421882168251</v>
       </c>
       <c r="J8">
-        <v>0.2801944183011586</v>
+        <v>0.2633421882168251</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.2408211332425</v>
+        <v>20.201379</v>
       </c>
       <c r="N8">
-        <v>18.2408211332425</v>
+        <v>60.604137</v>
       </c>
       <c r="O8">
-        <v>0.6628179361067104</v>
+        <v>0.673925778926067</v>
       </c>
       <c r="P8">
-        <v>0.6628179361067104</v>
+        <v>0.673925778926067</v>
       </c>
       <c r="Q8">
-        <v>33.8306647643323</v>
+        <v>39.101715120677</v>
       </c>
       <c r="R8">
-        <v>33.8306647643323</v>
+        <v>351.915436086093</v>
       </c>
       <c r="S8">
-        <v>0.1857178860469942</v>
+        <v>0.1774730893181188</v>
       </c>
       <c r="T8">
-        <v>0.1857178860469942</v>
+        <v>0.1774730893181188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.85466786375524</v>
+        <v>1.935596333333333</v>
       </c>
       <c r="H9">
-        <v>1.85466786375524</v>
+        <v>5.806789</v>
       </c>
       <c r="I9">
-        <v>0.2801944183011586</v>
+        <v>0.2633421882168251</v>
       </c>
       <c r="J9">
-        <v>0.2801944183011586</v>
+        <v>0.2633421882168251</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.810464841926744</v>
+        <v>1.014792333333333</v>
       </c>
       <c r="N9">
-        <v>0.810464841926744</v>
+        <v>3.044377</v>
       </c>
       <c r="O9">
-        <v>0.02944991510464115</v>
+        <v>0.03385386283232782</v>
       </c>
       <c r="P9">
-        <v>0.02944991510464115</v>
+        <v>0.03385386283232782</v>
       </c>
       <c r="Q9">
-        <v>1.503143097025003</v>
+        <v>1.964228319494778</v>
       </c>
       <c r="R9">
-        <v>1.503143097025003</v>
+        <v>17.678054875453</v>
       </c>
       <c r="S9">
-        <v>0.008251701831763431</v>
+        <v>0.008915150317857452</v>
       </c>
       <c r="T9">
-        <v>0.008251701831763431</v>
+        <v>0.008915150317857452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.11332758850772</v>
+        <v>2.414843</v>
       </c>
       <c r="H10">
-        <v>2.11332758850772</v>
+        <v>7.244529</v>
       </c>
       <c r="I10">
-        <v>0.3192715018756888</v>
+        <v>0.3285447636310271</v>
       </c>
       <c r="J10">
-        <v>0.3192715018756888</v>
+        <v>0.3285447636310271</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.39067755935886</v>
+        <v>5.593702666666666</v>
       </c>
       <c r="N10">
-        <v>5.39067755935886</v>
+        <v>16.781108</v>
       </c>
       <c r="O10">
-        <v>0.195881410601599</v>
+        <v>0.1866080739693142</v>
       </c>
       <c r="P10">
-        <v>0.195881410601599</v>
+        <v>0.1866080739693142</v>
       </c>
       <c r="Q10">
-        <v>11.39226760694254</v>
+        <v>13.50791372868133</v>
       </c>
       <c r="R10">
-        <v>11.39226760694254</v>
+        <v>121.571223558132</v>
       </c>
       <c r="S10">
-        <v>0.06253935215230097</v>
+        <v>0.06130910555388956</v>
       </c>
       <c r="T10">
-        <v>0.06253935215230097</v>
+        <v>0.06130910555388956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.11332758850772</v>
+        <v>2.414843</v>
       </c>
       <c r="H11">
-        <v>2.11332758850772</v>
+        <v>7.244529</v>
       </c>
       <c r="I11">
-        <v>0.3192715018756888</v>
+        <v>0.3285447636310271</v>
       </c>
       <c r="J11">
-        <v>0.3192715018756888</v>
+        <v>0.3285447636310271</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.07814438588553</v>
+        <v>3.165799333333334</v>
       </c>
       <c r="N11">
-        <v>3.07814438588553</v>
+        <v>9.497398</v>
       </c>
       <c r="O11">
-        <v>0.1118507381870494</v>
+        <v>0.105612284272291</v>
       </c>
       <c r="P11">
-        <v>0.1118507381870494</v>
+        <v>0.105612284272291</v>
       </c>
       <c r="Q11">
-        <v>6.505127452102044</v>
+        <v>7.644908359504667</v>
       </c>
       <c r="R11">
-        <v>6.505127452102044</v>
+        <v>68.804175235542</v>
       </c>
       <c r="S11">
-        <v>0.03571075316688372</v>
+        <v>0.0346983629727727</v>
       </c>
       <c r="T11">
-        <v>0.03571075316688372</v>
+        <v>0.03469836297277269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.11332758850772</v>
+        <v>2.414843</v>
       </c>
       <c r="H12">
-        <v>2.11332758850772</v>
+        <v>7.244529</v>
       </c>
       <c r="I12">
-        <v>0.3192715018756888</v>
+        <v>0.3285447636310271</v>
       </c>
       <c r="J12">
-        <v>0.3192715018756888</v>
+        <v>0.3285447636310271</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.2408211332425</v>
+        <v>20.201379</v>
       </c>
       <c r="N12">
-        <v>18.2408211332425</v>
+        <v>60.604137</v>
       </c>
       <c r="O12">
-        <v>0.6628179361067104</v>
+        <v>0.673925778926067</v>
       </c>
       <c r="P12">
-        <v>0.6628179361067104</v>
+        <v>0.673925778926067</v>
       </c>
       <c r="Q12">
-        <v>38.54883053791603</v>
+        <v>48.78315866849699</v>
       </c>
       <c r="R12">
-        <v>38.54883053791603</v>
+        <v>439.048428016473</v>
       </c>
       <c r="S12">
-        <v>0.2116188779309337</v>
+        <v>0.2214147857421205</v>
       </c>
       <c r="T12">
-        <v>0.2116188779309337</v>
+        <v>0.2214147857421205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.11332758850772</v>
+        <v>2.414843</v>
       </c>
       <c r="H13">
-        <v>2.11332758850772</v>
+        <v>7.244529</v>
       </c>
       <c r="I13">
-        <v>0.3192715018756888</v>
+        <v>0.3285447636310271</v>
       </c>
       <c r="J13">
-        <v>0.3192715018756888</v>
+        <v>0.3285447636310271</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.810464841926744</v>
+        <v>1.014792333333333</v>
       </c>
       <c r="N13">
-        <v>0.810464841926744</v>
+        <v>3.044377</v>
       </c>
       <c r="O13">
-        <v>0.02944991510464115</v>
+        <v>0.03385386283232782</v>
       </c>
       <c r="P13">
-        <v>0.02944991510464115</v>
+        <v>0.03385386283232782</v>
       </c>
       <c r="Q13">
-        <v>1.712777709959336</v>
+        <v>2.450564162603666</v>
       </c>
       <c r="R13">
-        <v>1.712777709959336</v>
+        <v>22.055077463433</v>
       </c>
       <c r="S13">
-        <v>0.009402518625570311</v>
+        <v>0.01112250936224436</v>
       </c>
       <c r="T13">
-        <v>0.009402518625570311</v>
+        <v>0.01112250936224436</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.874260159844831</v>
+        <v>0.8951723333333333</v>
       </c>
       <c r="H14">
-        <v>0.874260159844831</v>
+        <v>2.685517</v>
       </c>
       <c r="I14">
-        <v>0.1320790755686097</v>
+        <v>0.1217901878772388</v>
       </c>
       <c r="J14">
-        <v>0.1320790755686097</v>
+        <v>0.1217901878772388</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.39067755935886</v>
+        <v>5.593702666666666</v>
       </c>
       <c r="N14">
-        <v>5.39067755935886</v>
+        <v>16.781108</v>
       </c>
       <c r="O14">
-        <v>0.195881410601599</v>
+        <v>0.1866080739693142</v>
       </c>
       <c r="P14">
-        <v>0.195881410601599</v>
+        <v>0.1866080739693142</v>
       </c>
       <c r="Q14">
-        <v>4.71285462471702</v>
+        <v>5.007327868092888</v>
       </c>
       <c r="R14">
-        <v>4.71285462471702</v>
+        <v>45.065950812836</v>
       </c>
       <c r="S14">
-        <v>0.02587183563333447</v>
+        <v>0.02272703238813245</v>
       </c>
       <c r="T14">
-        <v>0.02587183563333447</v>
+        <v>0.02272703238813245</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.874260159844831</v>
+        <v>0.8951723333333333</v>
       </c>
       <c r="H15">
-        <v>0.874260159844831</v>
+        <v>2.685517</v>
       </c>
       <c r="I15">
-        <v>0.1320790755686097</v>
+        <v>0.1217901878772388</v>
       </c>
       <c r="J15">
-        <v>0.1320790755686097</v>
+        <v>0.1217901878772388</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.07814438588553</v>
+        <v>3.165799333333334</v>
       </c>
       <c r="N15">
-        <v>3.07814438588553</v>
+        <v>9.497398</v>
       </c>
       <c r="O15">
-        <v>0.1118507381870494</v>
+        <v>0.105612284272291</v>
       </c>
       <c r="P15">
-        <v>0.1118507381870494</v>
+        <v>0.105612284272291</v>
       </c>
       <c r="Q15">
-        <v>2.691099002829753</v>
+        <v>2.833935976085111</v>
       </c>
       <c r="R15">
-        <v>2.691099002829753</v>
+        <v>25.505423784766</v>
       </c>
       <c r="S15">
-        <v>0.01477314210141208</v>
+        <v>0.01286253994366668</v>
       </c>
       <c r="T15">
-        <v>0.01477314210141208</v>
+        <v>0.01286253994366668</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.874260159844831</v>
+        <v>0.8951723333333333</v>
       </c>
       <c r="H16">
-        <v>0.874260159844831</v>
+        <v>2.685517</v>
       </c>
       <c r="I16">
-        <v>0.1320790755686097</v>
+        <v>0.1217901878772388</v>
       </c>
       <c r="J16">
-        <v>0.1320790755686097</v>
+        <v>0.1217901878772388</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.2408211332425</v>
+        <v>20.201379</v>
       </c>
       <c r="N16">
-        <v>18.2408211332425</v>
+        <v>60.604137</v>
       </c>
       <c r="O16">
-        <v>0.6628179361067104</v>
+        <v>0.673925778926067</v>
       </c>
       <c r="P16">
-        <v>0.6628179361067104</v>
+        <v>0.673925778926067</v>
       </c>
       <c r="Q16">
-        <v>15.94722319964956</v>
+        <v>18.083715575981</v>
       </c>
       <c r="R16">
-        <v>15.94722319964956</v>
+        <v>162.753440183829</v>
       </c>
       <c r="S16">
-        <v>0.08754438027126814</v>
+        <v>0.08207754723072019</v>
       </c>
       <c r="T16">
-        <v>0.08754438027126814</v>
+        <v>0.08207754723072019</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.874260159844831</v>
+        <v>0.8951723333333333</v>
       </c>
       <c r="H17">
-        <v>0.874260159844831</v>
+        <v>2.685517</v>
       </c>
       <c r="I17">
-        <v>0.1320790755686097</v>
+        <v>0.1217901878772388</v>
       </c>
       <c r="J17">
-        <v>0.1320790755686097</v>
+        <v>0.1217901878772388</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.810464841926744</v>
+        <v>1.014792333333333</v>
       </c>
       <c r="N17">
-        <v>0.810464841926744</v>
+        <v>3.044377</v>
       </c>
       <c r="O17">
-        <v>0.02944991510464115</v>
+        <v>0.03385386283232782</v>
       </c>
       <c r="P17">
-        <v>0.02944991510464115</v>
+        <v>0.03385386283232782</v>
       </c>
       <c r="Q17">
-        <v>0.7085571222514908</v>
+        <v>0.9084140208787778</v>
       </c>
       <c r="R17">
-        <v>0.7085571222514908</v>
+        <v>8.175726187909</v>
       </c>
       <c r="S17">
-        <v>0.00388971756259504</v>
+        <v>0.004123068314719477</v>
       </c>
       <c r="T17">
-        <v>0.00388971756259504</v>
+        <v>0.004123068314719477</v>
       </c>
     </row>
   </sheetData>
